--- a/responses/2039/Holistic/features/all/anno_I01U_Holistic-2039.xlsx
+++ b/responses/2039/Holistic/features/all/anno_I01U_Holistic-2039.xlsx
@@ -1184,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <f>IF(AND(B2=1, G2=1),3,IF(AND(B2=1, G2=0), 2, 1))</f>
+        <f t="shared" ref="H2:H33" si="0">IF(AND(B2=1, G2=1),3,IF(AND(B2=1, G2=0), 2, 1))</f>
         <v>3</v>
       </c>
     </row>
@@ -1269,11 +1269,11 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <f>IF(OR(C3=0,D3=0, E3=0, F3=0), 0, 1)</f>
+        <f t="shared" ref="G3:G34" si="1">IF(OR(C3=0,D3=0, E3=0, F3=0), 0, 1)</f>
         <v>1</v>
       </c>
       <c r="H3">
-        <f>IF(AND(B3=1, G3=1),3,IF(AND(B3=1, G3=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1298,11 +1298,11 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <f>IF(OR(C4=0,D4=0, E4=0, F4=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H4">
-        <f>IF(AND(B4=1, G4=1),3,IF(AND(B4=1, G4=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1327,11 +1327,11 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <f>IF(OR(C5=0,D5=0, E5=0, F5=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H5">
-        <f>IF(AND(B5=1, G5=1),3,IF(AND(B5=1, G5=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1356,11 +1356,11 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <f>IF(OR(C6=0,D6=0, E6=0, F6=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H6">
-        <f>IF(AND(B6=1, G6=1),3,IF(AND(B6=1, G6=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1385,11 +1385,11 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <f>IF(OR(C7=0,D7=0, E7=0, F7=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H7">
-        <f>IF(AND(B7=1, G7=1),3,IF(AND(B7=1, G7=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1414,11 +1414,11 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <f>IF(OR(C8=0,D8=0, E8=0, F8=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H8">
-        <f>IF(AND(B8=1, G8=1),3,IF(AND(B8=1, G8=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1443,11 +1443,11 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <f>IF(OR(C9=0,D9=0, E9=0, F9=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H9">
-        <f>IF(AND(B9=1, G9=1),3,IF(AND(B9=1, G9=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1472,11 +1472,11 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <f>IF(OR(C10=0,D10=0, E10=0, F10=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H10">
-        <f>IF(AND(B10=1, G10=1),3,IF(AND(B10=1, G10=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1501,11 +1501,11 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <f>IF(OR(C11=0,D11=0, E11=0, F11=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H11">
-        <f>IF(AND(B11=1, G11=1),3,IF(AND(B11=1, G11=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1530,11 +1530,11 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <f>IF(OR(C12=0,D12=0, E12=0, F12=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H12">
-        <f>IF(AND(B12=1, G12=1),3,IF(AND(B12=1, G12=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1559,11 +1559,11 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <f>IF(OR(C13=0,D13=0, E13=0, F13=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H13">
-        <f>IF(AND(B13=1, G13=1),3,IF(AND(B13=1, G13=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1588,11 +1588,11 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <f>IF(OR(C14=0,D14=0, E14=0, F14=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H14">
-        <f>IF(AND(B14=1, G14=1),3,IF(AND(B14=1, G14=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1617,11 +1617,11 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <f>IF(OR(C15=0,D15=0, E15=0, F15=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H15">
-        <f>IF(AND(B15=1, G15=1),3,IF(AND(B15=1, G15=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <f>IF(OR(C16=0,D16=0, E16=0, F16=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H16">
-        <f>IF(AND(B16=1, G16=1),3,IF(AND(B16=1, G16=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1675,11 +1675,11 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <f>IF(OR(C17=0,D17=0, E17=0, F17=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H17">
-        <f>IF(AND(B17=1, G17=1),3,IF(AND(B17=1, G17=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1704,11 +1704,11 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <f>IF(OR(C18=0,D18=0, E18=0, F18=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H18">
-        <f>IF(AND(B18=1, G18=1),3,IF(AND(B18=1, G18=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1733,11 +1733,11 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <f>IF(OR(C19=0,D19=0, E19=0, F19=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H19">
-        <f>IF(AND(B19=1, G19=1),3,IF(AND(B19=1, G19=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1762,11 +1762,11 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <f>IF(OR(C20=0,D20=0, E20=0, F20=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H20">
-        <f>IF(AND(B20=1, G20=1),3,IF(AND(B20=1, G20=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1791,11 +1791,11 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <f>IF(OR(C21=0,D21=0, E21=0, F21=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H21">
-        <f>IF(AND(B21=1, G21=1),3,IF(AND(B21=1, G21=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1820,11 +1820,11 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <f>IF(OR(C22=0,D22=0, E22=0, F22=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H22">
-        <f>IF(AND(B22=1, G22=1),3,IF(AND(B22=1, G22=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1849,11 +1849,11 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <f>IF(OR(C23=0,D23=0, E23=0, F23=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H23">
-        <f>IF(AND(B23=1, G23=1),3,IF(AND(B23=1, G23=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1878,11 +1878,11 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <f>IF(OR(C24=0,D24=0, E24=0, F24=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H24">
-        <f>IF(AND(B24=1, G24=1),3,IF(AND(B24=1, G24=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1907,11 +1907,11 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <f>IF(OR(C25=0,D25=0, E25=0, F25=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H25">
-        <f>IF(AND(B25=1, G25=1),3,IF(AND(B25=1, G25=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1936,11 +1936,11 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <f>IF(OR(C26=0,D26=0, E26=0, F26=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H26">
-        <f>IF(AND(B26=1, G26=1),3,IF(AND(B26=1, G26=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1965,11 +1965,11 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <f>IF(OR(C27=0,D27=0, E27=0, F27=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H27">
-        <f>IF(AND(B27=1, G27=1),3,IF(AND(B27=1, G27=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1994,11 +1994,11 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <f>IF(OR(C28=0,D28=0, E28=0, F28=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H28">
-        <f>IF(AND(B28=1, G28=1),3,IF(AND(B28=1, G28=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -2023,11 +2023,11 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <f>IF(OR(C29=0,D29=0, E29=0, F29=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H29">
-        <f>IF(AND(B29=1, G29=1),3,IF(AND(B29=1, G29=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -2052,11 +2052,11 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <f>IF(OR(C30=0,D30=0, E30=0, F30=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H30">
-        <f>IF(AND(B30=1, G30=1),3,IF(AND(B30=1, G30=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -2081,11 +2081,11 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <f>IF(OR(C31=0,D31=0, E31=0, F31=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H31">
-        <f>IF(AND(B31=1, G31=1),3,IF(AND(B31=1, G31=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -2110,11 +2110,11 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <f>IF(OR(C32=0,D32=0, E32=0, F32=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H32">
-        <f>IF(AND(B32=1, G32=1),3,IF(AND(B32=1, G32=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -2139,11 +2139,11 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <f>IF(OR(C33=0,D33=0, E33=0, F33=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H33">
-        <f>IF(AND(B33=1, G33=1),3,IF(AND(B33=1, G33=0), 2, 1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -2168,11 +2168,11 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <f>IF(OR(C34=0,D34=0, E34=0, F34=0), 0, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H34">
-        <f>IF(AND(B34=1, G34=1),3,IF(AND(B34=1, G34=0), 2, 1))</f>
+        <f t="shared" ref="H34:H65" si="2">IF(AND(B34=1, G34=1),3,IF(AND(B34=1, G34=0), 2, 1))</f>
         <v>3</v>
       </c>
     </row>
@@ -2197,11 +2197,11 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <f>IF(OR(C35=0,D35=0, E35=0, F35=0), 0, 1)</f>
+        <f t="shared" ref="G35:G66" si="3">IF(OR(C35=0,D35=0, E35=0, F35=0), 0, 1)</f>
         <v>1</v>
       </c>
       <c r="H35">
-        <f>IF(AND(B35=1, G35=1),3,IF(AND(B35=1, G35=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2226,11 +2226,11 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <f>IF(OR(C36=0,D36=0, E36=0, F36=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H36">
-        <f>IF(AND(B36=1, G36=1),3,IF(AND(B36=1, G36=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2255,11 +2255,11 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <f>IF(OR(C37=0,D37=0, E37=0, F37=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H37">
-        <f>IF(AND(B37=1, G37=1),3,IF(AND(B37=1, G37=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2284,11 +2284,11 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <f>IF(OR(C38=0,D38=0, E38=0, F38=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H38">
-        <f>IF(AND(B38=1, G38=1),3,IF(AND(B38=1, G38=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2313,11 +2313,11 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <f>IF(OR(C39=0,D39=0, E39=0, F39=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H39">
-        <f>IF(AND(B39=1, G39=1),3,IF(AND(B39=1, G39=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2342,11 +2342,11 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <f>IF(OR(C40=0,D40=0, E40=0, F40=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H40">
-        <f>IF(AND(B40=1, G40=1),3,IF(AND(B40=1, G40=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2371,11 +2371,11 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <f>IF(OR(C41=0,D41=0, E41=0, F41=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H41">
-        <f>IF(AND(B41=1, G41=1),3,IF(AND(B41=1, G41=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2400,11 +2400,11 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <f>IF(OR(C42=0,D42=0, E42=0, F42=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H42">
-        <f>IF(AND(B42=1, G42=1),3,IF(AND(B42=1, G42=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2429,11 +2429,11 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <f>IF(OR(C43=0,D43=0, E43=0, F43=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H43">
-        <f>IF(AND(B43=1, G43=1),3,IF(AND(B43=1, G43=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2458,11 +2458,11 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <f>IF(OR(C44=0,D44=0, E44=0, F44=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H44">
-        <f>IF(AND(B44=1, G44=1),3,IF(AND(B44=1, G44=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2487,11 +2487,11 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <f>IF(OR(C45=0,D45=0, E45=0, F45=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H45">
-        <f>IF(AND(B45=1, G45=1),3,IF(AND(B45=1, G45=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2516,11 +2516,11 @@
         <v>1</v>
       </c>
       <c r="G46">
-        <f>IF(OR(C46=0,D46=0, E46=0, F46=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H46">
-        <f>IF(AND(B46=1, G46=1),3,IF(AND(B46=1, G46=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2545,11 +2545,11 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <f>IF(OR(C47=0,D47=0, E47=0, F47=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H47">
-        <f>IF(AND(B47=1, G47=1),3,IF(AND(B47=1, G47=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2574,11 +2574,11 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <f>IF(OR(C48=0,D48=0, E48=0, F48=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H48">
-        <f>IF(AND(B48=1, G48=1),3,IF(AND(B48=1, G48=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2603,11 +2603,11 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <f>IF(OR(C49=0,D49=0, E49=0, F49=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H49">
-        <f>IF(AND(B49=1, G49=1),3,IF(AND(B49=1, G49=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2632,11 +2632,11 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <f>IF(OR(C50=0,D50=0, E50=0, F50=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H50">
-        <f>IF(AND(B50=1, G50=1),3,IF(AND(B50=1, G50=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2661,11 +2661,11 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <f>IF(OR(C51=0,D51=0, E51=0, F51=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H51">
-        <f>IF(AND(B51=1, G51=1),3,IF(AND(B51=1, G51=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2690,11 +2690,11 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <f>IF(OR(C52=0,D52=0, E52=0, F52=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H52">
-        <f>IF(AND(B52=1, G52=1),3,IF(AND(B52=1, G52=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2719,11 +2719,11 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <f>IF(OR(C53=0,D53=0, E53=0, F53=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H53">
-        <f>IF(AND(B53=1, G53=1),3,IF(AND(B53=1, G53=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2748,11 +2748,11 @@
         <v>1</v>
       </c>
       <c r="G54">
-        <f>IF(OR(C54=0,D54=0, E54=0, F54=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H54">
-        <f>IF(AND(B54=1, G54=1),3,IF(AND(B54=1, G54=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2777,11 +2777,11 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <f>IF(OR(C55=0,D55=0, E55=0, F55=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H55">
-        <f>IF(AND(B55=1, G55=1),3,IF(AND(B55=1, G55=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2806,11 +2806,11 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <f>IF(OR(C56=0,D56=0, E56=0, F56=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H56">
-        <f>IF(AND(B56=1, G56=1),3,IF(AND(B56=1, G56=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2835,11 +2835,11 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <f>IF(OR(C57=0,D57=0, E57=0, F57=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H57">
-        <f>IF(AND(B57=1, G57=1),3,IF(AND(B57=1, G57=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2864,11 +2864,11 @@
         <v>1</v>
       </c>
       <c r="G58">
-        <f>IF(OR(C58=0,D58=0, E58=0, F58=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H58">
-        <f>IF(AND(B58=1, G58=1),3,IF(AND(B58=1, G58=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2893,11 +2893,11 @@
         <v>1</v>
       </c>
       <c r="G59">
-        <f>IF(OR(C59=0,D59=0, E59=0, F59=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H59">
-        <f>IF(AND(B59=1, G59=1),3,IF(AND(B59=1, G59=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2922,11 +2922,11 @@
         <v>1</v>
       </c>
       <c r="G60">
-        <f>IF(OR(C60=0,D60=0, E60=0, F60=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H60">
-        <f>IF(AND(B60=1, G60=1),3,IF(AND(B60=1, G60=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2951,11 +2951,11 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <f>IF(OR(C61=0,D61=0, E61=0, F61=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H61">
-        <f>IF(AND(B61=1, G61=1),3,IF(AND(B61=1, G61=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2980,11 +2980,11 @@
         <v>1</v>
       </c>
       <c r="G62">
-        <f>IF(OR(C62=0,D62=0, E62=0, F62=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H62">
-        <f>IF(AND(B62=1, G62=1),3,IF(AND(B62=1, G62=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3009,11 +3009,11 @@
         <v>1</v>
       </c>
       <c r="G63">
-        <f>IF(OR(C63=0,D63=0, E63=0, F63=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H63">
-        <f>IF(AND(B63=1, G63=1),3,IF(AND(B63=1, G63=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3038,11 +3038,11 @@
         <v>1</v>
       </c>
       <c r="G64">
-        <f>IF(OR(C64=0,D64=0, E64=0, F64=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H64">
-        <f>IF(AND(B64=1, G64=1),3,IF(AND(B64=1, G64=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3067,11 +3067,11 @@
         <v>1</v>
       </c>
       <c r="G65">
-        <f>IF(OR(C65=0,D65=0, E65=0, F65=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H65">
-        <f>IF(AND(B65=1, G65=1),3,IF(AND(B65=1, G65=0), 2, 1))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3096,11 +3096,11 @@
         <v>1</v>
       </c>
       <c r="G66">
-        <f>IF(OR(C66=0,D66=0, E66=0, F66=0), 0, 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H66">
-        <f>IF(AND(B66=1, G66=1),3,IF(AND(B66=1, G66=0), 2, 1))</f>
+        <f t="shared" ref="H66:H97" si="4">IF(AND(B66=1, G66=1),3,IF(AND(B66=1, G66=0), 2, 1))</f>
         <v>3</v>
       </c>
     </row>
@@ -3125,11 +3125,11 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <f>IF(OR(C67=0,D67=0, E67=0, F67=0), 0, 1)</f>
+        <f t="shared" ref="G67:G98" si="5">IF(OR(C67=0,D67=0, E67=0, F67=0), 0, 1)</f>
         <v>1</v>
       </c>
       <c r="H67">
-        <f>IF(AND(B67=1, G67=1),3,IF(AND(B67=1, G67=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -3154,11 +3154,11 @@
         <v>1</v>
       </c>
       <c r="G68">
-        <f>IF(OR(C68=0,D68=0, E68=0, F68=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H68">
-        <f>IF(AND(B68=1, G68=1),3,IF(AND(B68=1, G68=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -3183,11 +3183,11 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <f>IF(OR(C69=0,D69=0, E69=0, F69=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H69">
-        <f>IF(AND(B69=1, G69=1),3,IF(AND(B69=1, G69=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -3212,11 +3212,11 @@
         <v>1</v>
       </c>
       <c r="G70">
-        <f>IF(OR(C70=0,D70=0, E70=0, F70=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H70">
-        <f>IF(AND(B70=1, G70=1),3,IF(AND(B70=1, G70=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -3241,11 +3241,11 @@
         <v>1</v>
       </c>
       <c r="G71">
-        <f>IF(OR(C71=0,D71=0, E71=0, F71=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H71">
-        <f>IF(AND(B71=1, G71=1),3,IF(AND(B71=1, G71=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -3270,11 +3270,11 @@
         <v>1</v>
       </c>
       <c r="G72">
-        <f>IF(OR(C72=0,D72=0, E72=0, F72=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H72">
-        <f>IF(AND(B72=1, G72=1),3,IF(AND(B72=1, G72=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -3299,11 +3299,11 @@
         <v>1</v>
       </c>
       <c r="G73">
-        <f>IF(OR(C73=0,D73=0, E73=0, F73=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H73">
-        <f>IF(AND(B73=1, G73=1),3,IF(AND(B73=1, G73=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -3328,11 +3328,11 @@
         <v>1</v>
       </c>
       <c r="G74">
-        <f>IF(OR(C74=0,D74=0, E74=0, F74=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H74">
-        <f>IF(AND(B74=1, G74=1),3,IF(AND(B74=1, G74=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -3357,11 +3357,11 @@
         <v>1</v>
       </c>
       <c r="G75">
-        <f>IF(OR(C75=0,D75=0, E75=0, F75=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H75">
-        <f>IF(AND(B75=1, G75=1),3,IF(AND(B75=1, G75=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3386,11 +3386,11 @@
         <v>1</v>
       </c>
       <c r="G76">
-        <f>IF(OR(C76=0,D76=0, E76=0, F76=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H76">
-        <f>IF(AND(B76=1, G76=1),3,IF(AND(B76=1, G76=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3415,11 +3415,11 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <f>IF(OR(C77=0,D77=0, E77=0, F77=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H77">
-        <f>IF(AND(B77=1, G77=1),3,IF(AND(B77=1, G77=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3444,11 +3444,11 @@
         <v>1</v>
       </c>
       <c r="G78">
-        <f>IF(OR(C78=0,D78=0, E78=0, F78=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H78">
-        <f>IF(AND(B78=1, G78=1),3,IF(AND(B78=1, G78=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3473,11 +3473,11 @@
         <v>1</v>
       </c>
       <c r="G79">
-        <f>IF(OR(C79=0,D79=0, E79=0, F79=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H79">
-        <f>IF(AND(B79=1, G79=1),3,IF(AND(B79=1, G79=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3502,11 +3502,11 @@
         <v>1</v>
       </c>
       <c r="G80">
-        <f>IF(OR(C80=0,D80=0, E80=0, F80=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H80">
-        <f>IF(AND(B80=1, G80=1),3,IF(AND(B80=1, G80=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3531,11 +3531,11 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <f>IF(OR(C81=0,D81=0, E81=0, F81=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H81">
-        <f>IF(AND(B81=1, G81=1),3,IF(AND(B81=1, G81=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3560,11 +3560,11 @@
         <v>1</v>
       </c>
       <c r="G82">
-        <f>IF(OR(C82=0,D82=0, E82=0, F82=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H82">
-        <f>IF(AND(B82=1, G82=1),3,IF(AND(B82=1, G82=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3589,11 +3589,11 @@
         <v>1</v>
       </c>
       <c r="G83">
-        <f>IF(OR(C83=0,D83=0, E83=0, F83=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H83">
-        <f>IF(AND(B83=1, G83=1),3,IF(AND(B83=1, G83=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3618,11 +3618,11 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <f>IF(OR(C84=0,D84=0, E84=0, F84=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H84">
-        <f>IF(AND(B84=1, G84=1),3,IF(AND(B84=1, G84=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3647,11 +3647,11 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <f>IF(OR(C85=0,D85=0, E85=0, F85=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H85">
-        <f>IF(AND(B85=1, G85=1),3,IF(AND(B85=1, G85=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3676,11 +3676,11 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <f>IF(OR(C86=0,D86=0, E86=0, F86=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H86">
-        <f>IF(AND(B86=1, G86=1),3,IF(AND(B86=1, G86=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3705,11 +3705,11 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <f>IF(OR(C87=0,D87=0, E87=0, F87=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H87">
-        <f>IF(AND(B87=1, G87=1),3,IF(AND(B87=1, G87=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3734,11 +3734,11 @@
         <v>1</v>
       </c>
       <c r="G88">
-        <f>IF(OR(C88=0,D88=0, E88=0, F88=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H88">
-        <f>IF(AND(B88=1, G88=1),3,IF(AND(B88=1, G88=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3763,11 +3763,11 @@
         <v>1</v>
       </c>
       <c r="G89">
-        <f>IF(OR(C89=0,D89=0, E89=0, F89=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H89">
-        <f>IF(AND(B89=1, G89=1),3,IF(AND(B89=1, G89=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3792,11 +3792,11 @@
         <v>1</v>
       </c>
       <c r="G90">
-        <f>IF(OR(C90=0,D90=0, E90=0, F90=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H90">
-        <f>IF(AND(B90=1, G90=1),3,IF(AND(B90=1, G90=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3821,11 +3821,11 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <f>IF(OR(C91=0,D91=0, E91=0, F91=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H91">
-        <f>IF(AND(B91=1, G91=1),3,IF(AND(B91=1, G91=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3850,11 +3850,11 @@
         <v>1</v>
       </c>
       <c r="G92">
-        <f>IF(OR(C92=0,D92=0, E92=0, F92=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H92">
-        <f>IF(AND(B92=1, G92=1),3,IF(AND(B92=1, G92=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3879,11 +3879,11 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <f>IF(OR(C93=0,D93=0, E93=0, F93=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H93">
-        <f>IF(AND(B93=1, G93=1),3,IF(AND(B93=1, G93=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3908,11 +3908,11 @@
         <v>1</v>
       </c>
       <c r="G94">
-        <f>IF(OR(C94=0,D94=0, E94=0, F94=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H94">
-        <f>IF(AND(B94=1, G94=1),3,IF(AND(B94=1, G94=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3937,11 +3937,11 @@
         <v>1</v>
       </c>
       <c r="G95">
-        <f>IF(OR(C95=0,D95=0, E95=0, F95=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H95">
-        <f>IF(AND(B95=1, G95=1),3,IF(AND(B95=1, G95=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3966,11 +3966,11 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <f>IF(OR(C96=0,D96=0, E96=0, F96=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H96">
-        <f>IF(AND(B96=1, G96=1),3,IF(AND(B96=1, G96=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3995,11 +3995,11 @@
         <v>1</v>
       </c>
       <c r="G97">
-        <f>IF(OR(C97=0,D97=0, E97=0, F97=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H97">
-        <f>IF(AND(B97=1, G97=1),3,IF(AND(B97=1, G97=0), 2, 1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -4024,11 +4024,11 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <f>IF(OR(C98=0,D98=0, E98=0, F98=0), 0, 1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H98">
-        <f>IF(AND(B98=1, G98=1),3,IF(AND(B98=1, G98=0), 2, 1))</f>
+        <f t="shared" ref="H98:H129" si="6">IF(AND(B98=1, G98=1),3,IF(AND(B98=1, G98=0), 2, 1))</f>
         <v>2</v>
       </c>
     </row>
@@ -4053,11 +4053,11 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <f>IF(OR(C99=0,D99=0, E99=0, F99=0), 0, 1)</f>
+        <f t="shared" ref="G99:G130" si="7">IF(OR(C99=0,D99=0, E99=0, F99=0), 0, 1)</f>
         <v>0</v>
       </c>
       <c r="H99">
-        <f>IF(AND(B99=1, G99=1),3,IF(AND(B99=1, G99=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4082,11 +4082,11 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <f>IF(OR(C100=0,D100=0, E100=0, F100=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H100">
-        <f>IF(AND(B100=1, G100=1),3,IF(AND(B100=1, G100=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4111,11 +4111,11 @@
         <v>1</v>
       </c>
       <c r="G101">
-        <f>IF(OR(C101=0,D101=0, E101=0, F101=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H101">
-        <f>IF(AND(B101=1, G101=1),3,IF(AND(B101=1, G101=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4140,11 +4140,11 @@
         <v>1</v>
       </c>
       <c r="G102">
-        <f>IF(OR(C102=0,D102=0, E102=0, F102=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H102">
-        <f>IF(AND(B102=1, G102=1),3,IF(AND(B102=1, G102=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4169,11 +4169,11 @@
         <v>1</v>
       </c>
       <c r="G103">
-        <f>IF(OR(C103=0,D103=0, E103=0, F103=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H103">
-        <f>IF(AND(B103=1, G103=1),3,IF(AND(B103=1, G103=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4198,11 +4198,11 @@
         <v>1</v>
       </c>
       <c r="G104">
-        <f>IF(OR(C104=0,D104=0, E104=0, F104=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H104">
-        <f>IF(AND(B104=1, G104=1),3,IF(AND(B104=1, G104=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4227,11 +4227,11 @@
         <v>1</v>
       </c>
       <c r="G105">
-        <f>IF(OR(C105=0,D105=0, E105=0, F105=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H105">
-        <f>IF(AND(B105=1, G105=1),3,IF(AND(B105=1, G105=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4256,11 +4256,11 @@
         <v>1</v>
       </c>
       <c r="G106">
-        <f>IF(OR(C106=0,D106=0, E106=0, F106=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H106">
-        <f>IF(AND(B106=1, G106=1),3,IF(AND(B106=1, G106=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4285,11 +4285,11 @@
         <v>1</v>
       </c>
       <c r="G107">
-        <f>IF(OR(C107=0,D107=0, E107=0, F107=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H107">
-        <f>IF(AND(B107=1, G107=1),3,IF(AND(B107=1, G107=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4314,11 +4314,11 @@
         <v>1</v>
       </c>
       <c r="G108">
-        <f>IF(OR(C108=0,D108=0, E108=0, F108=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H108">
-        <f>IF(AND(B108=1, G108=1),3,IF(AND(B108=1, G108=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4343,11 +4343,11 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <f>IF(OR(C109=0,D109=0, E109=0, F109=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H109">
-        <f>IF(AND(B109=1, G109=1),3,IF(AND(B109=1, G109=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4372,11 +4372,11 @@
         <v>1</v>
       </c>
       <c r="G110">
-        <f>IF(OR(C110=0,D110=0, E110=0, F110=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H110">
-        <f>IF(AND(B110=1, G110=1),3,IF(AND(B110=1, G110=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4401,11 +4401,11 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <f>IF(OR(C111=0,D111=0, E111=0, F111=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H111">
-        <f>IF(AND(B111=1, G111=1),3,IF(AND(B111=1, G111=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4430,11 +4430,11 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <f>IF(OR(C112=0,D112=0, E112=0, F112=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H112">
-        <f>IF(AND(B112=1, G112=1),3,IF(AND(B112=1, G112=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4459,11 +4459,11 @@
         <v>1</v>
       </c>
       <c r="G113">
-        <f>IF(OR(C113=0,D113=0, E113=0, F113=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H113">
-        <f>IF(AND(B113=1, G113=1),3,IF(AND(B113=1, G113=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4488,11 +4488,11 @@
         <v>1</v>
       </c>
       <c r="G114">
-        <f>IF(OR(C114=0,D114=0, E114=0, F114=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H114">
-        <f>IF(AND(B114=1, G114=1),3,IF(AND(B114=1, G114=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4517,11 +4517,11 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <f>IF(OR(C115=0,D115=0, E115=0, F115=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H115">
-        <f>IF(AND(B115=1, G115=1),3,IF(AND(B115=1, G115=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4546,11 +4546,11 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <f>IF(OR(C116=0,D116=0, E116=0, F116=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H116">
-        <f>IF(AND(B116=1, G116=1),3,IF(AND(B116=1, G116=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4575,11 +4575,11 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <f>IF(OR(C117=0,D117=0, E117=0, F117=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H117">
-        <f>IF(AND(B117=1, G117=1),3,IF(AND(B117=1, G117=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4604,11 +4604,11 @@
         <v>1</v>
       </c>
       <c r="G118">
-        <f>IF(OR(C118=0,D118=0, E118=0, F118=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H118">
-        <f>IF(AND(B118=1, G118=1),3,IF(AND(B118=1, G118=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4633,11 +4633,11 @@
         <v>1</v>
       </c>
       <c r="G119">
-        <f>IF(OR(C119=0,D119=0, E119=0, F119=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H119">
-        <f>IF(AND(B119=1, G119=1),3,IF(AND(B119=1, G119=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4662,11 +4662,11 @@
         <v>1</v>
       </c>
       <c r="G120">
-        <f>IF(OR(C120=0,D120=0, E120=0, F120=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H120">
-        <f>IF(AND(B120=1, G120=1),3,IF(AND(B120=1, G120=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4691,11 +4691,11 @@
         <v>1</v>
       </c>
       <c r="G121">
-        <f>IF(OR(C121=0,D121=0, E121=0, F121=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H121">
-        <f>IF(AND(B121=1, G121=1),3,IF(AND(B121=1, G121=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4720,11 +4720,11 @@
         <v>1</v>
       </c>
       <c r="G122">
-        <f>IF(OR(C122=0,D122=0, E122=0, F122=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H122">
-        <f>IF(AND(B122=1, G122=1),3,IF(AND(B122=1, G122=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4749,11 +4749,11 @@
         <v>1</v>
       </c>
       <c r="G123">
-        <f>IF(OR(C123=0,D123=0, E123=0, F123=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H123">
-        <f>IF(AND(B123=1, G123=1),3,IF(AND(B123=1, G123=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4778,11 +4778,11 @@
         <v>0</v>
       </c>
       <c r="G124">
-        <f>IF(OR(C124=0,D124=0, E124=0, F124=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H124">
-        <f>IF(AND(B124=1, G124=1),3,IF(AND(B124=1, G124=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -4807,11 +4807,11 @@
         <v>1</v>
       </c>
       <c r="G125">
-        <f>IF(OR(C125=0,D125=0, E125=0, F125=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H125">
-        <f>IF(AND(B125=1, G125=1),3,IF(AND(B125=1, G125=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -4836,11 +4836,11 @@
         <v>1</v>
       </c>
       <c r="G126">
-        <f>IF(OR(C126=0,D126=0, E126=0, F126=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H126">
-        <f>IF(AND(B126=1, G126=1),3,IF(AND(B126=1, G126=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -4865,11 +4865,11 @@
         <v>1</v>
       </c>
       <c r="G127">
-        <f>IF(OR(C127=0,D127=0, E127=0, F127=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H127">
-        <f>IF(AND(B127=1, G127=1),3,IF(AND(B127=1, G127=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -4894,11 +4894,11 @@
         <v>1</v>
       </c>
       <c r="G128">
-        <f>IF(OR(C128=0,D128=0, E128=0, F128=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H128">
-        <f>IF(AND(B128=1, G128=1),3,IF(AND(B128=1, G128=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -4923,11 +4923,11 @@
         <v>1</v>
       </c>
       <c r="G129">
-        <f>IF(OR(C129=0,D129=0, E129=0, F129=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H129">
-        <f>IF(AND(B129=1, G129=1),3,IF(AND(B129=1, G129=0), 2, 1))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -4952,11 +4952,11 @@
         <v>1</v>
       </c>
       <c r="G130">
-        <f>IF(OR(C130=0,D130=0, E130=0, F130=0), 0, 1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H130">
-        <f>IF(AND(B130=1, G130=1),3,IF(AND(B130=1, G130=0), 2, 1))</f>
+        <f t="shared" ref="H130:H161" si="8">IF(AND(B130=1, G130=1),3,IF(AND(B130=1, G130=0), 2, 1))</f>
         <v>1</v>
       </c>
     </row>
@@ -4981,11 +4981,11 @@
         <v>0</v>
       </c>
       <c r="G131">
-        <f>IF(OR(C131=0,D131=0, E131=0, F131=0), 0, 1)</f>
+        <f t="shared" ref="G131:G162" si="9">IF(OR(C131=0,D131=0, E131=0, F131=0), 0, 1)</f>
         <v>0</v>
       </c>
       <c r="H131">
-        <f>IF(AND(B131=1, G131=1),3,IF(AND(B131=1, G131=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5010,11 +5010,11 @@
         <v>0</v>
       </c>
       <c r="G132">
-        <f>IF(OR(C132=0,D132=0, E132=0, F132=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H132">
-        <f>IF(AND(B132=1, G132=1),3,IF(AND(B132=1, G132=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5039,11 +5039,11 @@
         <v>1</v>
       </c>
       <c r="G133">
-        <f>IF(OR(C133=0,D133=0, E133=0, F133=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H133">
-        <f>IF(AND(B133=1, G133=1),3,IF(AND(B133=1, G133=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5068,11 +5068,11 @@
         <v>1</v>
       </c>
       <c r="G134">
-        <f>IF(OR(C134=0,D134=0, E134=0, F134=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H134">
-        <f>IF(AND(B134=1, G134=1),3,IF(AND(B134=1, G134=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5097,11 +5097,11 @@
         <v>1</v>
       </c>
       <c r="G135">
-        <f>IF(OR(C135=0,D135=0, E135=0, F135=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H135">
-        <f>IF(AND(B135=1, G135=1),3,IF(AND(B135=1, G135=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5126,11 +5126,11 @@
         <v>1</v>
       </c>
       <c r="G136">
-        <f>IF(OR(C136=0,D136=0, E136=0, F136=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H136">
-        <f>IF(AND(B136=1, G136=1),3,IF(AND(B136=1, G136=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5155,11 +5155,11 @@
         <v>1</v>
       </c>
       <c r="G137">
-        <f>IF(OR(C137=0,D137=0, E137=0, F137=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H137">
-        <f>IF(AND(B137=1, G137=1),3,IF(AND(B137=1, G137=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5184,11 +5184,11 @@
         <v>1</v>
       </c>
       <c r="G138">
-        <f>IF(OR(C138=0,D138=0, E138=0, F138=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H138">
-        <f>IF(AND(B138=1, G138=1),3,IF(AND(B138=1, G138=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5213,11 +5213,11 @@
         <v>1</v>
       </c>
       <c r="G139">
-        <f>IF(OR(C139=0,D139=0, E139=0, F139=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H139">
-        <f>IF(AND(B139=1, G139=1),3,IF(AND(B139=1, G139=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5242,11 +5242,11 @@
         <v>1</v>
       </c>
       <c r="G140">
-        <f>IF(OR(C140=0,D140=0, E140=0, F140=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H140">
-        <f>IF(AND(B140=1, G140=1),3,IF(AND(B140=1, G140=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5271,11 +5271,11 @@
         <v>0</v>
       </c>
       <c r="G141">
-        <f>IF(OR(C141=0,D141=0, E141=0, F141=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H141">
-        <f>IF(AND(B141=1, G141=1),3,IF(AND(B141=1, G141=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5300,11 +5300,11 @@
         <v>1</v>
       </c>
       <c r="G142">
-        <f>IF(OR(C142=0,D142=0, E142=0, F142=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H142">
-        <f>IF(AND(B142=1, G142=1),3,IF(AND(B142=1, G142=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5329,11 +5329,11 @@
         <v>1</v>
       </c>
       <c r="G143">
-        <f>IF(OR(C143=0,D143=0, E143=0, F143=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H143">
-        <f>IF(AND(B143=1, G143=1),3,IF(AND(B143=1, G143=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5358,11 +5358,11 @@
         <v>1</v>
       </c>
       <c r="G144">
-        <f>IF(OR(C144=0,D144=0, E144=0, F144=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H144">
-        <f>IF(AND(B144=1, G144=1),3,IF(AND(B144=1, G144=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5387,11 +5387,11 @@
         <v>1</v>
       </c>
       <c r="G145">
-        <f>IF(OR(C145=0,D145=0, E145=0, F145=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H145">
-        <f>IF(AND(B145=1, G145=1),3,IF(AND(B145=1, G145=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5416,11 +5416,11 @@
         <v>1</v>
       </c>
       <c r="G146">
-        <f>IF(OR(C146=0,D146=0, E146=0, F146=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H146">
-        <f>IF(AND(B146=1, G146=1),3,IF(AND(B146=1, G146=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5445,11 +5445,11 @@
         <v>1</v>
       </c>
       <c r="G147">
-        <f>IF(OR(C147=0,D147=0, E147=0, F147=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H147">
-        <f>IF(AND(B147=1, G147=1),3,IF(AND(B147=1, G147=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5474,11 +5474,11 @@
         <v>1</v>
       </c>
       <c r="G148">
-        <f>IF(OR(C148=0,D148=0, E148=0, F148=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H148">
-        <f>IF(AND(B148=1, G148=1),3,IF(AND(B148=1, G148=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5503,11 +5503,11 @@
         <v>1</v>
       </c>
       <c r="G149">
-        <f>IF(OR(C149=0,D149=0, E149=0, F149=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H149">
-        <f>IF(AND(B149=1, G149=1),3,IF(AND(B149=1, G149=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5532,11 +5532,11 @@
         <v>1</v>
       </c>
       <c r="G150">
-        <f>IF(OR(C150=0,D150=0, E150=0, F150=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H150">
-        <f>IF(AND(B150=1, G150=1),3,IF(AND(B150=1, G150=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5561,11 +5561,11 @@
         <v>0</v>
       </c>
       <c r="G151">
-        <f>IF(OR(C151=0,D151=0, E151=0, F151=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H151">
-        <f>IF(AND(B151=1, G151=1),3,IF(AND(B151=1, G151=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5590,11 +5590,11 @@
         <v>1</v>
       </c>
       <c r="G152">
-        <f>IF(OR(C152=0,D152=0, E152=0, F152=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H152">
-        <f>IF(AND(B152=1, G152=1),3,IF(AND(B152=1, G152=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5619,11 +5619,11 @@
         <v>0</v>
       </c>
       <c r="G153">
-        <f>IF(OR(C153=0,D153=0, E153=0, F153=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H153">
-        <f>IF(AND(B153=1, G153=1),3,IF(AND(B153=1, G153=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5648,11 +5648,11 @@
         <v>1</v>
       </c>
       <c r="G154">
-        <f>IF(OR(C154=0,D154=0, E154=0, F154=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H154">
-        <f>IF(AND(B154=1, G154=1),3,IF(AND(B154=1, G154=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5677,11 +5677,11 @@
         <v>1</v>
       </c>
       <c r="G155">
-        <f>IF(OR(C155=0,D155=0, E155=0, F155=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H155">
-        <f>IF(AND(B155=1, G155=1),3,IF(AND(B155=1, G155=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5706,11 +5706,11 @@
         <v>1</v>
       </c>
       <c r="G156">
-        <f>IF(OR(C156=0,D156=0, E156=0, F156=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H156">
-        <f>IF(AND(B156=1, G156=1),3,IF(AND(B156=1, G156=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5735,11 +5735,11 @@
         <v>1</v>
       </c>
       <c r="G157">
-        <f>IF(OR(C157=0,D157=0, E157=0, F157=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H157">
-        <f>IF(AND(B157=1, G157=1),3,IF(AND(B157=1, G157=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5764,11 +5764,11 @@
         <v>0</v>
       </c>
       <c r="G158">
-        <f>IF(OR(C158=0,D158=0, E158=0, F158=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H158">
-        <f>IF(AND(B158=1, G158=1),3,IF(AND(B158=1, G158=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5793,11 +5793,11 @@
         <v>1</v>
       </c>
       <c r="G159">
-        <f>IF(OR(C159=0,D159=0, E159=0, F159=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H159">
-        <f>IF(AND(B159=1, G159=1),3,IF(AND(B159=1, G159=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5822,11 +5822,11 @@
         <v>1</v>
       </c>
       <c r="G160">
-        <f>IF(OR(C160=0,D160=0, E160=0, F160=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H160">
-        <f>IF(AND(B160=1, G160=1),3,IF(AND(B160=1, G160=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5851,11 +5851,11 @@
         <v>1</v>
       </c>
       <c r="G161">
-        <f>IF(OR(C161=0,D161=0, E161=0, F161=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H161">
-        <f>IF(AND(B161=1, G161=1),3,IF(AND(B161=1, G161=0), 2, 1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5880,11 +5880,11 @@
         <v>1</v>
       </c>
       <c r="G162">
-        <f>IF(OR(C162=0,D162=0, E162=0, F162=0), 0, 1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H162">
-        <f>IF(AND(B162=1, G162=1),3,IF(AND(B162=1, G162=0), 2, 1))</f>
+        <f t="shared" ref="H162:H193" si="10">IF(AND(B162=1, G162=1),3,IF(AND(B162=1, G162=0), 2, 1))</f>
         <v>1</v>
       </c>
     </row>
@@ -5909,11 +5909,11 @@
         <v>1</v>
       </c>
       <c r="G163">
-        <f>IF(OR(C163=0,D163=0, E163=0, F163=0), 0, 1)</f>
+        <f t="shared" ref="G163:G194" si="11">IF(OR(C163=0,D163=0, E163=0, F163=0), 0, 1)</f>
         <v>0</v>
       </c>
       <c r="H163">
-        <f>IF(AND(B163=1, G163=1),3,IF(AND(B163=1, G163=0), 2, 1))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5938,11 +5938,11 @@
         <v>1</v>
       </c>
       <c r="G164">
-        <f>IF(OR(C164=0,D164=0, E164=0, F164=0), 0, 1)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H164">
-        <f>IF(AND(B164=1, G164=1),3,IF(AND(B164=1, G164=0), 2, 1))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5967,11 +5967,11 @@
         <v>1</v>
       </c>
       <c r="G165">
-        <f>IF(OR(C165=0,D165=0, E165=0, F165=0), 0, 1)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H165">
-        <f>IF(AND(B165=1, G165=1),3,IF(AND(B165=1, G165=0), 2, 1))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5996,11 +5996,11 @@
         <v>1</v>
       </c>
       <c r="G166">
-        <f>IF(OR(C166=0,D166=0, E166=0, F166=0), 0, 1)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H166">
-        <f>IF(AND(B166=1, G166=1),3,IF(AND(B166=1, G166=0), 2, 1))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6025,11 +6025,11 @@
         <v>1</v>
       </c>
       <c r="G167">
-        <f>IF(OR(C167=0,D167=0, E167=0, F167=0), 0, 1)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H167">
-        <f>IF(AND(B167=1, G167=1),3,IF(AND(B167=1, G167=0), 2, 1))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
